--- a/Data/vo2max_mITT.xlsx
+++ b/Data/vo2max_mITT.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA154"/>
+  <dimension ref="A1:BB154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,6 +633,11 @@
           <t>treat</t>
         </is>
       </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>operator</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -821,6 +826,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -1014,6 +1024,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>Iben</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -1202,6 +1217,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>Iben</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -1390,6 +1410,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>Iben</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -1583,6 +1608,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -1776,6 +1806,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>Simon</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -1964,6 +1999,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>Iben</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -2152,6 +2192,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -2340,6 +2385,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>Iben</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -2522,6 +2572,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>Clara</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -2715,6 +2770,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -2903,6 +2963,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>Iben</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -3091,6 +3156,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>Iben</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -3236,6 +3306,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -3381,6 +3456,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -3521,6 +3601,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>Clara</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -3714,6 +3799,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -3902,6 +3992,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -4095,6 +4190,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>Clara</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -4288,6 +4388,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -4476,6 +4581,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -4669,6 +4779,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>Clara</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -4862,6 +4977,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>Malte og Iben</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -5050,6 +5170,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>Clara</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -5238,6 +5363,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>Clara og Iben</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -5426,6 +5556,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -5614,6 +5749,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>Clara og Iben</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -5807,6 +5947,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -5995,6 +6140,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB30" t="inlineStr">
+        <is>
+          <t>Clara</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -6183,6 +6333,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB31" t="inlineStr">
+        <is>
+          <t>Clara</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -6368,6 +6523,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB32" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -6556,6 +6716,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB33" t="inlineStr">
+        <is>
+          <t>Clara</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -6744,6 +6909,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB34" t="inlineStr">
+        <is>
+          <t>Iben</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -6932,6 +7102,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB35" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -7120,6 +7295,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB36" t="inlineStr">
+        <is>
+          <t>Iben</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -7308,6 +7488,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB37" t="inlineStr">
+        <is>
+          <t>Clara</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -7501,6 +7686,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB38" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -7689,6 +7879,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB39" t="inlineStr">
+        <is>
+          <t>Clara</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -7877,6 +8072,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB40" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -8059,6 +8259,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB41" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -8247,6 +8452,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB42" t="inlineStr">
+        <is>
+          <t>Clara</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -8323,7 +8533,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0	1	Plateu i VO2</t>
         </is>
       </c>
       <c r="T43">
@@ -8433,6 +8643,11 @@
       <c r="BA43" t="inlineStr">
         <is>
           <t>Pingvin</t>
+        </is>
+      </c>
+      <c r="BB43" t="inlineStr">
+        <is>
+          <t>Clara</t>
         </is>
       </c>
     </row>
@@ -8623,6 +8838,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB44" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -8699,7 +8919,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0	1</t>
         </is>
       </c>
       <c r="T45">
@@ -8809,6 +9029,11 @@
       <c r="BA45" t="inlineStr">
         <is>
           <t>Pingvin</t>
+        </is>
+      </c>
+      <c r="BB45" t="inlineStr">
+        <is>
+          <t>Anna</t>
         </is>
       </c>
     </row>
@@ -8887,7 +9112,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0	1</t>
         </is>
       </c>
       <c r="T46">
@@ -8997,6 +9222,11 @@
       <c r="BA46" t="inlineStr">
         <is>
           <t>Pingvin</t>
+        </is>
+      </c>
+      <c r="BB46" t="inlineStr">
+        <is>
+          <t>Malte</t>
         </is>
       </c>
     </row>
@@ -9187,6 +9417,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB47" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -9375,6 +9610,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB48" t="inlineStr">
+        <is>
+          <t>Clara</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -9451,7 +9691,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0	1	Plateu i VO2</t>
         </is>
       </c>
       <c r="T49">
@@ -9561,6 +9801,11 @@
       <c r="BA49" t="inlineStr">
         <is>
           <t>Pingvin</t>
+        </is>
+      </c>
+      <c r="BB49" t="inlineStr">
+        <is>
+          <t>Anna</t>
         </is>
       </c>
     </row>
@@ -9751,6 +9996,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB50" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -9827,7 +10077,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0	1	Plateu i VO2</t>
         </is>
       </c>
       <c r="T51">
@@ -9937,6 +10187,11 @@
       <c r="BA51" t="inlineStr">
         <is>
           <t>Pingvin</t>
+        </is>
+      </c>
+      <c r="BB51" t="inlineStr">
+        <is>
+          <t>Iben</t>
         </is>
       </c>
     </row>
@@ -10127,6 +10382,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB52" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -10320,6 +10580,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB53" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -10508,6 +10773,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB54" t="inlineStr">
+        <is>
+          <t>Clara</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -10584,17 +10854,17 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0	1	Plateu i VO2</t>
         </is>
       </c>
       <c r="T55">
         <v>12</v>
       </c>
       <c r="U55">
-        <v>2158.13</v>
+        <v>2171.22</v>
       </c>
       <c r="V55">
-        <v>29.08</v>
+        <v>29.26</v>
       </c>
       <c r="W55">
         <v>165</v>
@@ -10694,6 +10964,11 @@
       <c r="BA55" t="inlineStr">
         <is>
           <t>Søløve</t>
+        </is>
+      </c>
+      <c r="BB55" t="inlineStr">
+        <is>
+          <t>Malte</t>
         </is>
       </c>
     </row>
@@ -10889,6 +11164,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB56" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -11077,6 +11357,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB57" t="inlineStr">
+        <is>
+          <t>Iben</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -11153,17 +11438,17 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0	1</t>
         </is>
       </c>
       <c r="T58">
         <v>13</v>
       </c>
       <c r="U58">
-        <v>995.35</v>
+        <v>993.64</v>
       </c>
       <c r="V58">
-        <v>22.78</v>
+        <v>22.74</v>
       </c>
       <c r="W58">
         <v>118</v>
@@ -11263,6 +11548,11 @@
       <c r="BA58" t="inlineStr">
         <is>
           <t>Pingvin</t>
+        </is>
+      </c>
+      <c r="BB58" t="inlineStr">
+        <is>
+          <t>Malte</t>
         </is>
       </c>
     </row>
@@ -11453,6 +11743,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB59" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -11641,6 +11936,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB60" t="inlineStr">
+        <is>
+          <t>Anna og Clara</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -11829,6 +12129,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB61" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -11912,10 +12217,10 @@
         <v>9</v>
       </c>
       <c r="U62">
-        <v>1709.92</v>
+        <v>1589.56</v>
       </c>
       <c r="V62">
-        <v>33.01</v>
+        <v>30.69</v>
       </c>
       <c r="W62">
         <v>166</v>
@@ -12015,6 +12320,11 @@
       <c r="BA62" t="inlineStr">
         <is>
           <t>Pingvin</t>
+        </is>
+      </c>
+      <c r="BB62" t="inlineStr">
+        <is>
+          <t>Malte</t>
         </is>
       </c>
     </row>
@@ -12093,7 +12403,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0	Plateu i VO2</t>
         </is>
       </c>
       <c r="T63">
@@ -12203,6 +12513,11 @@
       <c r="BA63" t="inlineStr">
         <is>
           <t>Pingvin</t>
+        </is>
+      </c>
+      <c r="BB63" t="inlineStr">
+        <is>
+          <t>Clara</t>
         </is>
       </c>
     </row>
@@ -12281,7 +12596,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0	1	Plateu i VO2</t>
         </is>
       </c>
       <c r="T64">
@@ -12396,6 +12711,11 @@
       <c r="BA64" t="inlineStr">
         <is>
           <t>Søløve</t>
+        </is>
+      </c>
+      <c r="BB64" t="inlineStr">
+        <is>
+          <t>Malte</t>
         </is>
       </c>
     </row>
@@ -12591,6 +12911,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB65" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -12784,6 +13109,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB66" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -12972,6 +13302,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB67" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -13160,6 +13495,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB68" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -13353,6 +13693,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB69" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -13541,6 +13886,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB70" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -13729,6 +14079,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB71" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -13922,6 +14277,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB72" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -13998,7 +14358,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0	1</t>
         </is>
       </c>
       <c r="T73">
@@ -14108,6 +14468,11 @@
       <c r="BA73" t="inlineStr">
         <is>
           <t>Pingvin</t>
+        </is>
+      </c>
+      <c r="BB73" t="inlineStr">
+        <is>
+          <t>Malte</t>
         </is>
       </c>
     </row>
@@ -14298,6 +14663,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB74" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -14491,6 +14861,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB75" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -14679,6 +15054,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB76" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -14867,6 +15247,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB77" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -15192,6 +15577,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB79" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -15385,6 +15775,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB80" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -15578,6 +15973,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB81" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -15766,6 +16166,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB82" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -15959,6 +16364,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB83" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -16152,6 +16562,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB84" t="inlineStr">
+        <is>
+          <t>Marie Louise</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -16345,6 +16760,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB85" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -16538,6 +16958,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB86" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -16726,6 +17151,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB87" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -16919,6 +17349,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB88" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -17112,6 +17547,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB89" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -17305,6 +17745,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB90" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -17498,6 +17943,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB91" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -17686,6 +18136,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB92" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -17874,6 +18329,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB93" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -18062,6 +18522,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB94" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -18255,6 +18720,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB95" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -18448,6 +18918,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB96" t="inlineStr">
+        <is>
+          <t>Marie Louise</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -18636,6 +19111,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB97" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -18829,6 +19309,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB98" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -19022,6 +19507,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB99" t="inlineStr">
+        <is>
+          <t>Iben</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -19215,6 +19705,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB100" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -19403,6 +19898,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB101" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -19591,6 +20091,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB102" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -19784,6 +20289,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB103" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -19972,6 +20482,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB104" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -20165,6 +20680,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB105" t="inlineStr">
+        <is>
+          <t>Marie Louise</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -20353,6 +20873,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB106" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -20541,6 +21066,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB107" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -20729,6 +21259,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB108" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -20917,6 +21452,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB109" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -21104,6 +21644,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB110" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -21292,6 +21837,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB111" t="inlineStr">
+        <is>
+          <t>Marie Louise</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -21487,6 +22037,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB112" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -21675,6 +22230,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB113" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -21751,7 +22311,7 @@
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0	1	Plateu i VO2</t>
         </is>
       </c>
       <c r="T114">
@@ -21861,6 +22421,11 @@
       <c r="BA114" t="inlineStr">
         <is>
           <t>Pingvin</t>
+        </is>
+      </c>
+      <c r="BB114" t="inlineStr">
+        <is>
+          <t>Anna</t>
         </is>
       </c>
     </row>
@@ -21939,7 +22504,7 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0	1	Plateu i VO2</t>
         </is>
       </c>
       <c r="T115">
@@ -22054,6 +22619,11 @@
       <c r="BA115" t="inlineStr">
         <is>
           <t>Søløve</t>
+        </is>
+      </c>
+      <c r="BB115" t="inlineStr">
+        <is>
+          <t>Malte</t>
         </is>
       </c>
     </row>
@@ -22249,6 +22819,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB116" t="inlineStr">
+        <is>
+          <t>Marie Louise</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -22437,6 +23012,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB117" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -22630,6 +23210,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB118" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -22706,7 +23291,7 @@
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>Plateu i VO2</t>
+          <t>0	Plateu i VO2</t>
         </is>
       </c>
       <c r="T119">
@@ -22816,6 +23401,11 @@
       <c r="BA119" t="inlineStr">
         <is>
           <t>Pingvin</t>
+        </is>
+      </c>
+      <c r="BB119" t="inlineStr">
+        <is>
+          <t>Malte</t>
         </is>
       </c>
     </row>
@@ -23006,6 +23596,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB120" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -23082,7 +23677,7 @@
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1	Plateu i VO2</t>
         </is>
       </c>
       <c r="T121">
@@ -23197,6 +23792,11 @@
       <c r="BA121" t="inlineStr">
         <is>
           <t>Pingvin</t>
+        </is>
+      </c>
+      <c r="BB121" t="inlineStr">
+        <is>
+          <t>Malte</t>
         </is>
       </c>
     </row>
@@ -23275,7 +23875,7 @@
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0	Plateu i VO2</t>
         </is>
       </c>
       <c r="T122">
@@ -23390,6 +23990,11 @@
       <c r="BA122" t="inlineStr">
         <is>
           <t>Pingvin</t>
+        </is>
+      </c>
+      <c r="BB122" t="inlineStr">
+        <is>
+          <t>Malte</t>
         </is>
       </c>
     </row>
@@ -23574,6 +24179,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB123" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -23767,6 +24377,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB124" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -23960,6 +24575,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB125" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -24153,6 +24773,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB126" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -24341,6 +24966,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB127" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -24529,6 +25159,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB128" t="inlineStr">
+        <is>
+          <t>Marie Louise</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -24605,7 +25240,7 @@
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0	Plateu i VO2</t>
         </is>
       </c>
       <c r="T129">
@@ -24712,6 +25347,11 @@
       <c r="BA129" t="inlineStr">
         <is>
           <t>Søløve</t>
+        </is>
+      </c>
+      <c r="BB129" t="inlineStr">
+        <is>
+          <t>Malte</t>
         </is>
       </c>
     </row>
@@ -24902,6 +25542,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB130" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -25095,6 +25740,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB131" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -25283,6 +25933,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB132" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -25476,6 +26131,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB133" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -25664,6 +26324,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB134" t="inlineStr">
+        <is>
+          <t>Clara</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135">
@@ -25852,6 +26517,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB135" t="inlineStr">
+        <is>
+          <t>Marie Louise</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -26045,6 +26715,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB136" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137">
@@ -26238,6 +26913,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB137" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -26314,7 +26994,7 @@
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0	1	Plateu i VO2</t>
         </is>
       </c>
       <c r="T138">
@@ -26424,6 +27104,11 @@
       <c r="BA138" t="inlineStr">
         <is>
           <t>Pingvin</t>
+        </is>
+      </c>
+      <c r="BB138" t="inlineStr">
+        <is>
+          <t>Malte</t>
         </is>
       </c>
     </row>
@@ -26502,7 +27187,7 @@
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0	1	Plateu i VO2</t>
         </is>
       </c>
       <c r="T139">
@@ -26612,6 +27297,11 @@
       <c r="BA139" t="inlineStr">
         <is>
           <t>Pingvin</t>
+        </is>
+      </c>
+      <c r="BB139" t="inlineStr">
+        <is>
+          <t>Malte</t>
         </is>
       </c>
     </row>
@@ -26802,6 +27492,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB140" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -26990,6 +27685,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB141" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142">
@@ -27178,6 +27878,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB142" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -27366,6 +28071,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB143" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -27559,6 +28269,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB144" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145">
@@ -27635,17 +28350,17 @@
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0	1</t>
         </is>
       </c>
       <c r="T145">
         <v>12</v>
       </c>
       <c r="U145">
-        <v>2724.7</v>
+        <v>2455.64</v>
       </c>
       <c r="V145">
-        <v>46.98</v>
+        <v>42.34</v>
       </c>
       <c r="W145">
         <v>181</v>
@@ -27745,6 +28460,11 @@
       <c r="BA145" t="inlineStr">
         <is>
           <t>Pingvin</t>
+        </is>
+      </c>
+      <c r="BB145" t="inlineStr">
+        <is>
+          <t>Iben</t>
         </is>
       </c>
     </row>
@@ -27935,6 +28655,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB146" t="inlineStr">
+        <is>
+          <t>Clara</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147">
@@ -28123,6 +28848,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB147" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148">
@@ -28316,6 +29046,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB148" t="inlineStr">
+        <is>
+          <t>Marie Louise</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149">
@@ -28504,6 +29239,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB149" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150">
@@ -28692,6 +29432,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB150" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151">
@@ -28880,6 +29625,11 @@
           <t>Søløve</t>
         </is>
       </c>
+      <c r="BB151" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152">
@@ -29073,6 +29823,11 @@
           <t>Pingvin</t>
         </is>
       </c>
+      <c r="BB152" t="inlineStr">
+        <is>
+          <t>Malte</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153">
@@ -29149,7 +29904,7 @@
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0	1	Plateu i VO2</t>
         </is>
       </c>
       <c r="T153">
@@ -29264,6 +30019,11 @@
       <c r="BA153" t="inlineStr">
         <is>
           <t>Pingvin</t>
+        </is>
+      </c>
+      <c r="BB153" t="inlineStr">
+        <is>
+          <t>Anna</t>
         </is>
       </c>
     </row>
@@ -29457,6 +30217,11 @@
       <c r="BA154" t="inlineStr">
         <is>
           <t>Søløve</t>
+        </is>
+      </c>
+      <c r="BB154" t="inlineStr">
+        <is>
+          <t>Malte</t>
         </is>
       </c>
     </row>
